--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323676BE-3EE4-4CDA-BCD7-9F6B5BB87683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C6650B-6EF2-417D-9A98-DD0BAACC8B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{02E90A04-E8F0-4CAD-AA3B-6A25AA6E37BD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>גורובוי אלכסנדר</t>
+  </si>
+  <si>
+    <t>באזוב ילנה</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="37">
     <dxf>
       <font>
         <b val="0"/>
@@ -237,34 +240,6 @@
         <charset val="177"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -802,58 +777,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0652C201-1087-4E18-ACAB-6F1A47498D71}" name="Table1" displayName="Table1" ref="A1:Y9" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
-  <autoFilter ref="A1:Y8" xr:uid="{0652C201-1087-4E18-ACAB-6F1A47498D71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0652C201-1087-4E18-ACAB-6F1A47498D71}" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34">
+  <autoFilter ref="A1:Y9" xr:uid="{0652C201-1087-4E18-ACAB-6F1A47498D71}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{BF5628E9-EEF9-4170-9A42-8CA7F2B9434A}" name="שם" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{10D02A07-F79E-4FCC-A04E-703D3A86EFC4}" name="8.02" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{BF5628E9-EEF9-4170-9A42-8CA7F2B9434A}" name="שם" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{10D02A07-F79E-4FCC-A04E-703D3A86EFC4}" name="8.02" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C5B291B1-29AB-4CA2-ACCB-65900DE64A2A}" name="12.02" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{C5B291B1-29AB-4CA2-ACCB-65900DE64A2A}" name="12.02" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B94AD40E-E21D-4CCA-9EA0-843C6B15BA45}" name="15.02" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{B94AD40E-E21D-4CCA-9EA0-843C6B15BA45}" name="15.02" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F5FE8F79-9578-46BB-A3AA-4D499DDB4F5D}" name="19.02" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{F5FE8F79-9578-46BB-A3AA-4D499DDB4F5D}" name="19.02" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{76992478-8730-4A23-A59E-A3AB72557866}" name="22.02" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{76992478-8730-4A23-A59E-A3AB72557866}" name="22.02" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38548DAF-B0A0-4907-BA07-9E8508F76832}" name="26.02" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="7" xr3:uid="{38548DAF-B0A0-4907-BA07-9E8508F76832}" name="26.02" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76359B7E-1A29-4198-9D95-930D1CAAEFAF}" name="1.03" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="8" xr3:uid="{76359B7E-1A29-4198-9D95-930D1CAAEFAF}" name="1.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B892E3FB-B2AA-4B42-9547-135D577902E4}" name="5.03" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{B892E3FB-B2AA-4B42-9547-135D577902E4}" name="5.03" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{654BAD56-5584-4614-AA0A-6EE07627BEBE}" name="8.03" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="10" xr3:uid="{654BAD56-5584-4614-AA0A-6EE07627BEBE}" name="8.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BA0910AE-7741-4755-A1AC-D6474963699B}" name="12.03" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="11" xr3:uid="{BA0910AE-7741-4755-A1AC-D6474963699B}" name="12.03" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{72B303BB-1B72-4066-A922-378EE24340D5}" name="15.03" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="12" xr3:uid="{72B303BB-1B72-4066-A922-378EE24340D5}" name="15.03" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{23BF2062-548A-4404-BD00-3E1AAA23269B}" name="19.03" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="13" xr3:uid="{23BF2062-548A-4404-BD00-3E1AAA23269B}" name="19.03" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E01B5137-D330-4FCE-AD1C-B95B5145500A}" name="26.03" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{3297E6C9-0D8E-4CF2-869B-A718B1E8C2EE}" name="29.03" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{C91E2265-85B1-4E21-987E-DEC79FD6BB00}" name="16.04" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{BC293A88-46B4-47DF-BB16-EDAA05719D6F}" name="19.042" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{05331E46-3292-48AD-BC22-6BBD0B2FC91C}" name="23.04" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{FAE3F01A-ADAA-4BFC-A796-2274631FABC5}" name="30.04" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{DB19647E-204B-49E6-9DE3-7DC84D659F5F}" name="3.05" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{72DA1DFF-1DDA-4715-B1B6-73A52DBED18C}" name="7.05" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{619FFDF6-781E-4C12-9DAD-DEFAC9318286}" name="10.05" dataDxfId="16"/>
-    <tableColumn id="25" xr3:uid="{5800E972-88E2-4401-97B7-9F6EBF7E5325}" name="14.05" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{D0C37AF6-5CF5-4659-A0EB-D80708B5CED9}" name="17.05" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{E991348E-1C88-4E9A-8F4E-311AF1FBF540}" name="% נוכחות" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="24" xr3:uid="{E01B5137-D330-4FCE-AD1C-B95B5145500A}" name="26.03" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{3297E6C9-0D8E-4CF2-869B-A718B1E8C2EE}" name="29.03" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{C91E2265-85B1-4E21-987E-DEC79FD6BB00}" name="16.04" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{BC293A88-46B4-47DF-BB16-EDAA05719D6F}" name="19.042" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{05331E46-3292-48AD-BC22-6BBD0B2FC91C}" name="23.04" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{FAE3F01A-ADAA-4BFC-A796-2274631FABC5}" name="30.04" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{DB19647E-204B-49E6-9DE3-7DC84D659F5F}" name="3.05" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{72DA1DFF-1DDA-4715-B1B6-73A52DBED18C}" name="7.05" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{619FFDF6-781E-4C12-9DAD-DEFAC9318286}" name="10.05" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{5800E972-88E2-4401-97B7-9F6EBF7E5325}" name="14.05" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{D0C37AF6-5CF5-4659-A0EB-D80708B5CED9}" name="17.05" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{E991348E-1C88-4E9A-8F4E-311AF1FBF540}" name="% נוכחות" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1158,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E1A783-99F4-481F-BCE3-374AC751DE42}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1488,79 +1463,113 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="5">
+      <c r="Y8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="5">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>COUNTIF(Table1[8.02],"כן")</f>
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <f>COUNTIF(Table1[12.02],"כן")</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>COUNTIF(Table1[15.02],"כן")</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>COUNTIF(Table1[19.02],"כן")</f>
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f>COUNTIF(Table1[22.02],"כן")</f>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f>COUNTIF(Table1[26.02],"כן")</f>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f>COUNTIF(Table1[1.03],"כן")</f>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f>COUNTIF(Table1[5.03],"כן")</f>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <f>COUNTIF(Table1[8.03],"כן")</f>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <f>COUNTIF(Table1[12.03],"כן")</f>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <f>COUNTIF(Table1[15.03],"כן")</f>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <f>COUNTIF(Table1[19.03],"כן")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:X9">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:X10">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="Y2:Y10">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1576,7 +1585,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:X9</xm:sqref>
+          <xm:sqref>B2:X10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C6650B-6EF2-417D-9A98-DD0BAACC8B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{02E90A04-E8F0-4CAD-AA3B-6A25AA6E37BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,12 +149,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -163,14 +162,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -178,7 +177,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -221,7 +220,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -235,11 +234,419 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -268,500 +675,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,58 +690,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0652C201-1087-4E18-ACAB-6F1A47498D71}" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34">
-  <autoFilter ref="A1:Y9" xr:uid="{0652C201-1087-4E18-ACAB-6F1A47498D71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+  <autoFilter ref="A1:Y9"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{BF5628E9-EEF9-4170-9A42-8CA7F2B9434A}" name="שם" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{10D02A07-F79E-4FCC-A04E-703D3A86EFC4}" name="8.02" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C5B291B1-29AB-4CA2-ACCB-65900DE64A2A}" name="12.02" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B94AD40E-E21D-4CCA-9EA0-843C6B15BA45}" name="15.02" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F5FE8F79-9578-46BB-A3AA-4D499DDB4F5D}" name="19.02" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{76992478-8730-4A23-A59E-A3AB72557866}" name="22.02" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38548DAF-B0A0-4907-BA07-9E8508F76832}" name="26.02" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{76359B7E-1A29-4198-9D95-930D1CAAEFAF}" name="1.03" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B892E3FB-B2AA-4B42-9547-135D577902E4}" name="5.03" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{654BAD56-5584-4614-AA0A-6EE07627BEBE}" name="8.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BA0910AE-7741-4755-A1AC-D6474963699B}" name="12.03" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{72B303BB-1B72-4066-A922-378EE24340D5}" name="15.03" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{23BF2062-548A-4404-BD00-3E1AAA23269B}" name="19.03" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E01B5137-D330-4FCE-AD1C-B95B5145500A}" name="26.03" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{3297E6C9-0D8E-4CF2-869B-A718B1E8C2EE}" name="29.03" dataDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{C91E2265-85B1-4E21-987E-DEC79FD6BB00}" name="16.04" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{BC293A88-46B4-47DF-BB16-EDAA05719D6F}" name="19.042" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{05331E46-3292-48AD-BC22-6BBD0B2FC91C}" name="23.04" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{FAE3F01A-ADAA-4BFC-A796-2274631FABC5}" name="30.04" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{DB19647E-204B-49E6-9DE3-7DC84D659F5F}" name="3.05" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{72DA1DFF-1DDA-4715-B1B6-73A52DBED18C}" name="7.05" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{619FFDF6-781E-4C12-9DAD-DEFAC9318286}" name="10.05" dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{5800E972-88E2-4401-97B7-9F6EBF7E5325}" name="14.05" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{D0C37AF6-5CF5-4659-A0EB-D80708B5CED9}" name="17.05" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{E991348E-1C88-4E9A-8F4E-311AF1FBF540}" name="% נוכחות" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="24" name="26.03" dataDxfId="12"/>
+    <tableColumn id="23" name="29.03" dataDxfId="11"/>
+    <tableColumn id="22" name="16.04" dataDxfId="10"/>
+    <tableColumn id="21" name="19.042" dataDxfId="9"/>
+    <tableColumn id="20" name="23.04" dataDxfId="8"/>
+    <tableColumn id="19" name="30.04" dataDxfId="7"/>
+    <tableColumn id="18" name="3.05" dataDxfId="6"/>
+    <tableColumn id="17" name="7.05" dataDxfId="5"/>
+    <tableColumn id="16" name="10.05" dataDxfId="4"/>
+    <tableColumn id="25" name="14.05" dataDxfId="3"/>
+    <tableColumn id="15" name="17.05" dataDxfId="2"/>
+    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1132,28 +1045,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E1A783-99F4-481F-BCE3-374AC751DE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1468,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1558,18 +1471,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:X10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1581,11 +1494,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C21D36C1-C969-4B78-A95D-356FA90837BA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:X10</xm:sqref>
+          <xm:sqref>B2:X9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1594,21 +1507,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C1AB21-66FF-4C2A-B3A7-1F2060606E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Y5:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y6" t="s">
         <v>20</v>
       </c>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -56,9 +56,6 @@
     <t>טאקלה וובנש</t>
   </si>
   <si>
-    <t>פילו טטיאנה</t>
-  </si>
-  <si>
     <t>8.02</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>16.04</t>
   </si>
   <si>
-    <t>19.042</t>
-  </si>
-  <si>
     <t>23.04</t>
   </si>
   <si>
@@ -137,20 +131,26 @@
     <t>14.05</t>
   </si>
   <si>
-    <t>17.05</t>
-  </si>
-  <si>
     <t>גורובוי אלכסנדר</t>
   </si>
   <si>
     <t>באזוב ילנה</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>19.04</t>
+  </si>
+  <si>
+    <t>פילו טטיאנה (טל)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,12 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,6 +221,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,15 +739,15 @@
     </tableColumn>
     <tableColumn id="24" name="26.03" dataDxfId="12"/>
     <tableColumn id="23" name="29.03" dataDxfId="11"/>
-    <tableColumn id="22" name="16.04" dataDxfId="10"/>
-    <tableColumn id="21" name="19.042" dataDxfId="9"/>
-    <tableColumn id="20" name="23.04" dataDxfId="8"/>
-    <tableColumn id="19" name="30.04" dataDxfId="7"/>
-    <tableColumn id="18" name="3.05" dataDxfId="6"/>
-    <tableColumn id="17" name="7.05" dataDxfId="5"/>
-    <tableColumn id="16" name="10.05" dataDxfId="4"/>
-    <tableColumn id="25" name="14.05" dataDxfId="3"/>
-    <tableColumn id="15" name="17.05" dataDxfId="2"/>
+    <tableColumn id="22" name="2.04" dataDxfId="10"/>
+    <tableColumn id="21" name="16.04" dataDxfId="9"/>
+    <tableColumn id="20" name="19.04" dataDxfId="8"/>
+    <tableColumn id="19" name="23.04" dataDxfId="7"/>
+    <tableColumn id="18" name="30.04" dataDxfId="6"/>
+    <tableColumn id="17" name="3.05" dataDxfId="5"/>
+    <tableColumn id="16" name="7.05" dataDxfId="4"/>
+    <tableColumn id="25" name="10.05" dataDxfId="3"/>
+    <tableColumn id="15" name="14.05" dataDxfId="2"/>
     <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
@@ -1048,13 +1055,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.125" bestFit="1" customWidth="1"/>
@@ -1071,76 +1078,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="Y1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1148,9 +1155,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1182,9 +1191,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1216,9 +1227,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1250,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1284,9 +1297,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1315,12 +1330,14 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1349,12 +1366,14 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1383,10 +1402,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1416,8 +1435,8 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
+      <c r="A10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Table1[8.02],"כן")</f>
@@ -1425,7 +1444,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Table1[12.02],"כן")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <f>COUNTIF(Table1[15.02],"כן")</f>
@@ -1518,12 +1537,12 @@
   <sheetData>
     <row r="5" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1265,7 +1265,9 @@
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1289,7 +1291,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1407,7 +1409,9 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1444,7 +1448,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Table1[12.02],"כן")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <f>COUNTIF(Table1[15.02],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1160,9 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1196,7 +1198,9 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1232,7 +1236,9 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1268,7 +1274,9 @@
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1291,7 +1299,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1304,7 +1312,9 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1340,7 +1350,9 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1376,7 +1388,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1452,7 +1466,7 @@
       </c>
       <c r="D10">
         <f>COUNTIF(Table1[15.02],"כן")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <f>COUNTIF(Table1[19.02],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767A029-BFE6-455F-86F3-BE4584F13ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -149,12 +150,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -162,14 +163,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -177,7 +178,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -185,7 +186,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,7 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -241,7 +241,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -697,58 +697,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
-  <autoFilter ref="A1:Y9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+  <autoFilter ref="A1:Y9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" dataDxfId="12"/>
-    <tableColumn id="23" name="29.03" dataDxfId="11"/>
-    <tableColumn id="22" name="2.04" dataDxfId="10"/>
-    <tableColumn id="21" name="16.04" dataDxfId="9"/>
-    <tableColumn id="20" name="19.04" dataDxfId="8"/>
-    <tableColumn id="19" name="23.04" dataDxfId="7"/>
-    <tableColumn id="18" name="30.04" dataDxfId="6"/>
-    <tableColumn id="17" name="3.05" dataDxfId="5"/>
-    <tableColumn id="16" name="7.05" dataDxfId="4"/>
-    <tableColumn id="25" name="10.05" dataDxfId="3"/>
-    <tableColumn id="15" name="14.05" dataDxfId="2"/>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="29.03" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2.04" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="7.05" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="10.05" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="14.05" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1052,28 +1052,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1426,9 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1447,13 +1449,13 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="5">
+      <c r="Y9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1466,7 +1468,7 @@
       </c>
       <c r="D10">
         <f>COUNTIF(Table1[15.02],"כן")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <f>COUNTIF(Table1[19.02],"כן")</f>
@@ -1531,7 +1533,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
@@ -1544,21 +1546,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y5:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y6" t="s">
         <v>19</v>
       </c>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767A029-BFE6-455F-86F3-BE4584F13ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -150,12 +149,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -163,14 +162,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -178,7 +177,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -186,7 +185,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,7 +240,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -697,58 +696,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
-  <autoFilter ref="A1:Y9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+  <autoFilter ref="A1:Y9"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="29.03" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2.04" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="7.05" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="10.05" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="14.05" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="24" name="26.03" dataDxfId="12"/>
+    <tableColumn id="23" name="29.03" dataDxfId="11"/>
+    <tableColumn id="22" name="2.04" dataDxfId="10"/>
+    <tableColumn id="21" name="16.04" dataDxfId="9"/>
+    <tableColumn id="20" name="19.04" dataDxfId="8"/>
+    <tableColumn id="19" name="23.04" dataDxfId="7"/>
+    <tableColumn id="18" name="30.04" dataDxfId="6"/>
+    <tableColumn id="17" name="3.05" dataDxfId="5"/>
+    <tableColumn id="16" name="7.05" dataDxfId="4"/>
+    <tableColumn id="25" name="10.05" dataDxfId="3"/>
+    <tableColumn id="15" name="14.05" dataDxfId="2"/>
+    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1052,28 +1051,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1162,9 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1188,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1202,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1226,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1242,9 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1264,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1282,9 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1299,10 +1306,10 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1322,9 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1340,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +1362,9 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1378,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1402,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1416,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1442,9 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1454,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1487,7 @@
       </c>
       <c r="E10">
         <f>COUNTIF(Table1[19.02],"כן")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <f>COUNTIF(Table1[22.02],"כן")</f>
@@ -1533,7 +1548,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
@@ -1546,21 +1561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Y5:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y6" t="s">
         <v>19</v>
       </c>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1165,9 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1205,7 +1207,9 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1245,7 +1249,9 @@
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1285,7 +1291,9 @@
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1306,7 +1314,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1325,7 +1333,9 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1365,7 +1375,9 @@
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1405,7 +1417,9 @@
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1445,7 +1459,9 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1491,7 +1507,7 @@
       </c>
       <c r="F10">
         <f>COUNTIF(Table1[22.02],"כן")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Table1[26.02],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1168,9 @@
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1210,7 +1212,9 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1252,7 +1256,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1294,7 +1300,9 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1314,7 +1322,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1336,7 +1344,9 @@
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1378,7 +1388,9 @@
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1420,7 +1432,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1462,7 +1476,9 @@
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1511,7 +1527,7 @@
       </c>
       <c r="G10">
         <f>COUNTIF(Table1[26.02],"כן")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <f>COUNTIF(Table1[1.03],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,8 @@
     <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
@@ -1171,7 +1172,9 @@
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1215,7 +1218,9 @@
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1259,7 +1264,9 @@
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1303,7 +1310,9 @@
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1322,7 +1331,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1347,7 +1356,9 @@
       <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1391,7 +1402,9 @@
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1435,7 +1448,9 @@
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1479,7 +1494,9 @@
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1531,7 +1548,7 @@
       </c>
       <c r="H10">
         <f>COUNTIF(Table1[1.03],"כן")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <f>COUNTIF(Table1[5.03],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1175,9 @@
       <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1359,7 +1361,9 @@
       <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1405,7 +1409,9 @@
       <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1451,7 +1457,9 @@
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1552,7 +1560,7 @@
       </c>
       <c r="I10">
         <f>COUNTIF(Table1[5.03],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f>COUNTIF(Table1[8.03],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1223,9 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1269,7 +1271,9 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1287,7 +1291,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1315,7 +1319,9 @@
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1333,7 +1339,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1505,7 +1511,9 @@
       <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1560,7 +1568,7 @@
       </c>
       <c r="I10">
         <f>COUNTIF(Table1[5.03],"כן")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <f>COUNTIF(Table1[8.03],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25320" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1178,9 @@
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1226,7 +1228,9 @@
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1274,7 +1278,9 @@
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1291,7 +1297,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1322,7 +1328,9 @@
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1339,7 +1347,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1418,7 +1426,9 @@
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1466,7 +1476,9 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1514,7 +1526,9 @@
       <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1572,7 +1586,7 @@
       </c>
       <c r="J10">
         <f>COUNTIF(Table1[8.03],"כן")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Table1[12.03],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1181,8 +1181,12 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1231,8 +1235,12 @@
       <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1247,7 +1255,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1281,8 +1289,12 @@
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1297,7 +1309,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.88888888888888884</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1331,7 +1343,9 @@
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1347,7 +1361,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.88888888888888884</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1378,9 +1392,15 @@
       <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1429,8 +1449,12 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1479,8 +1503,12 @@
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1529,8 +1557,12 @@
       <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1586,15 +1618,15 @@
       </c>
       <c r="J10">
         <f>COUNTIF(Table1[8.03],"כן")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Table1[12.03],"כן")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <f>COUNTIF(Table1[15.03],"כן")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <f>COUNTIF(Table1[19.03],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,9 @@
       <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1241,7 +1243,9 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1255,7 +1259,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.90909090909090906</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1295,7 +1299,9 @@
       <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1309,7 +1315,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.90909090909090906</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1346,8 +1352,12 @@
       <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1361,7 +1371,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1401,7 +1411,9 @@
       <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1455,7 +1467,9 @@
       <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1509,7 +1523,9 @@
       <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1563,7 +1579,9 @@
       <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1630,7 +1648,7 @@
       </c>
       <c r="M10">
         <f>COUNTIF(Table1[19.03],"כן")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -736,17 +736,39 @@
     <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" dataDxfId="12"/>
-    <tableColumn id="23" name="29.03" dataDxfId="11"/>
-    <tableColumn id="22" name="2.04" dataDxfId="10"/>
-    <tableColumn id="21" name="16.04" dataDxfId="9"/>
-    <tableColumn id="20" name="19.04" dataDxfId="8"/>
-    <tableColumn id="19" name="23.04" dataDxfId="7"/>
-    <tableColumn id="18" name="30.04" dataDxfId="6"/>
-    <tableColumn id="17" name="3.05" dataDxfId="5"/>
-    <tableColumn id="16" name="7.05" dataDxfId="4"/>
-    <tableColumn id="25" name="10.05" dataDxfId="3"/>
-    <tableColumn id="15" name="14.05" dataDxfId="2"/>
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="12">
+      <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" name="29.03" totalsRowFunction="custom" dataDxfId="11">
+      <totalsRowFormula>COUNTIF(Table1[29.03],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" name="2.04" totalsRowFunction="custom" dataDxfId="10">
+      <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="9">
+      <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="8">
+      <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="7">
+      <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="6">
+      <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="5">
+      <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="4">
+      <totalsRowFormula>COUNTIF(Table1[7.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="3">
+      <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="2">
+      <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
@@ -1055,7 +1077,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M10" sqref="M10:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1212,9 @@
       <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1246,7 +1270,9 @@
       <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1302,7 +1328,9 @@
       <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1358,7 +1386,9 @@
       <c r="M5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1414,7 +1444,9 @@
       <c r="M6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1470,7 +1502,9 @@
       <c r="M7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1526,7 +1560,9 @@
       <c r="M8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1582,7 +1618,9 @@
       <c r="M9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1649,6 +1687,50 @@
       <c r="M10">
         <f>COUNTIF(Table1[19.03],"כן")</f>
         <v>8</v>
+      </c>
+      <c r="N10">
+        <f>COUNTIF(Table1[26.03],"כן")</f>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <f>COUNTIF(Table1[29.03],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>COUNTIF(Table1[2.04],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>COUNTIF(Table1[16.04],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>COUNTIF(Table1[19.04],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>COUNTIF(Table1[23.04],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>COUNTIF(Table1[30.04],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>COUNTIF(Table1[3.05],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>COUNTIF(Table1[7.05],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>COUNTIF(Table1[10.05],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>COUNTIF(Table1[14.05],"כן")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D41CB0-4CB2-49AD-9581-7F3D899985C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25320" windowHeight="11850"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,9 +108,6 @@
     <t>26.03</t>
   </si>
   <si>
-    <t>29.03</t>
-  </si>
-  <si>
     <t>16.04</t>
   </si>
   <si>
@@ -144,17 +142,20 @@
   </si>
   <si>
     <t>פילו טטיאנה (טל)</t>
+  </si>
+  <si>
+    <t>3.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -162,14 +163,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -177,7 +178,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -185,7 +186,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,419 +241,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -681,6 +272,416 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,80 +697,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
-  <autoFilter ref="A1:Y9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
+  <autoFilter ref="A1:Y9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="29.03" totalsRowFunction="custom" dataDxfId="11">
-      <totalsRowFormula>COUNTIF(Table1[29.03],"כן")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="22" name="2.04" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2.04" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="3.04" totalsRowFunction="custom" dataDxfId="14">
+      <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="7.05" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[7.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="10.05" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="14.05" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1073,29 +1074,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:X10"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,40 +1140,40 @@
         <v>22</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1462,9 +1463,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1520,9 +1521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1578,9 +1579,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1636,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1693,11 +1694,11 @@
         <v>7</v>
       </c>
       <c r="O10">
-        <f>COUNTIF(Table1[29.03],"כן")</f>
+        <f>COUNTIF(Table1[2.04],"כן")</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>COUNTIF(Table1[2.04],"כן")</f>
+        <f>COUNTIF(Table1[3.04],"כן")</f>
         <v>0</v>
       </c>
       <c r="Q10">
@@ -1736,18 +1737,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:X10">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1759,7 +1760,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
@@ -1772,21 +1773,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y5:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y6" t="s">
         <v>19</v>
       </c>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Dropbox\Important Documents\שיעורים פרטיים\מתנס מנדל\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D41CB0-4CB2-49AD-9581-7F3D899985C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -150,12 +149,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -163,14 +162,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -178,7 +177,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -186,7 +185,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,9 +240,419 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -272,416 +681,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,80 +696,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
-  <autoFilter ref="A1:Y9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+  <autoFilter ref="A1:Y9"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2.04" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="3.04" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="7.05" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>COUNTIF(Table1[7.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="10.05" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="3">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="14.05" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="2">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1074,29 +1073,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1215,9 @@
       <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1231,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1275,9 @@
       <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1289,7 +1292,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1335,9 @@
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1347,7 +1352,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1395,9 @@
       <c r="N5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1405,7 +1412,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1455,9 @@
       <c r="N6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1463,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1515,9 @@
       <c r="N7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1521,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1575,9 @@
       <c r="N8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1579,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1635,9 @@
       <c r="N9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1637,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1695,7 +1710,7 @@
       </c>
       <c r="O10">
         <f>COUNTIF(Table1[2.04],"כן")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <f>COUNTIF(Table1[3.04],"כן")</f>
@@ -1737,18 +1752,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:X10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1760,7 +1775,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
@@ -1773,21 +1788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Y5:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
       <c r="Y6" t="s">
         <v>19</v>
       </c>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1218,9 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1278,7 +1280,9 @@
       <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1338,7 +1342,9 @@
       <c r="O4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1398,7 +1404,9 @@
       <c r="O5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1458,7 +1466,9 @@
       <c r="O6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1518,7 +1528,9 @@
       <c r="O7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1578,7 +1590,9 @@
       <c r="O8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1638,7 +1652,9 @@
       <c r="O9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1714,7 +1730,7 @@
       </c>
       <c r="P10">
         <f>COUNTIF(Table1[3.04],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <f>COUNTIF(Table1[16.04],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -259,400 +259,11 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -662,23 +273,412 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,81 +696,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
   <autoFilter ref="A1:Y9"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[7.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
-      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1077,7 +1077,8 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1222,9 @@
       <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1230,7 +1233,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1283,7 +1286,9 @@
       <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1292,8 +1297,8 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.91666666666666663</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1345,8 +1350,12 @@
       <c r="P4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1354,8 +1363,8 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.91666666666666663</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1407,8 +1416,12 @@
       <c r="P5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -1416,8 +1429,8 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>0.83333333333333337</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1467,9 +1480,11 @@
         <v>18</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1478,8 +1493,8 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
-        <v>1</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1531,7 +1546,9 @@
       <c r="P7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1540,7 +1557,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1593,7 +1610,9 @@
       <c r="P8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1602,7 +1621,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1653,9 +1672,11 @@
         <v>18</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1664,7 +1685,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[19.03]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[19.03]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1730,11 +1751,11 @@
       </c>
       <c r="P10">
         <f>COUNTIF(Table1[3.04],"כן")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q10">
         <f>COUNTIF(Table1[16.04],"כן")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10">
         <f>COUNTIF(Table1[19.04],"כן")</f>
@@ -1768,18 +1789,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:X10">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -259,6 +259,409 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -268,417 +671,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,77 +696,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A1:Y9"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>COUNTIF(Table1[7.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="3">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="2">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
@@ -1078,7 +1078,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R3" sqref="R3"/>
+      <selection pane="topRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1225,9 @@
       <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -1289,7 +1291,9 @@
       <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -1298,7 +1302,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.875</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1356,7 +1360,9 @@
       <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1364,7 +1370,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.70588235294117652</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1422,7 +1428,9 @@
       <c r="R5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1430,7 +1438,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.6470588235294118</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1485,7 +1493,9 @@
       <c r="Q6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1494,7 +1504,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.9375</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1549,8 +1559,12 @@
       <c r="Q7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -1613,8 +1627,12 @@
       <c r="Q8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1677,8 +1695,12 @@
       <c r="Q9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -1686,7 +1708,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1759,11 +1781,11 @@
       </c>
       <c r="R10">
         <f>COUNTIF(Table1[19.04],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10">
         <f>COUNTIF(Table1[23.04],"כן")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <f>COUNTIF(Table1[30.04],"כן")</f>
@@ -1789,18 +1811,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:X10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1077,23 +1077,22 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S9" sqref="S9"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1228,7 +1227,9 @@
       <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1294,7 +1295,9 @@
       <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -1302,7 +1305,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.82352941176470584</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1496,7 +1499,9 @@
       <c r="R6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1504,7 +1509,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.94117647058823528</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1785,7 +1790,7 @@
       </c>
       <c r="S10">
         <f>COUNTIF(Table1[23.04],"כן")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <f>COUNTIF(Table1[30.04],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1078,7 +1078,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1:S1048576"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1230,7 +1230,9 @@
       <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1298,14 +1300,16 @@
       <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.77777777777777779</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1366,14 +1370,16 @@
       <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.66666666666666663</v>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1434,14 +1440,16 @@
       <c r="S5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.61111111111111116</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1502,14 +1510,16 @@
       <c r="S6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.88888888888888884</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1570,7 +1580,9 @@
       <c r="S7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1638,7 +1650,9 @@
       <c r="S8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1706,14 +1720,16 @@
       <c r="S9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.88888888888888884</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1794,7 +1810,7 @@
       </c>
       <c r="T10">
         <f>COUNTIF(Table1[30.04],"כן")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <f>COUNTIF(Table1[3.05],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
   <si>
     <t>שם</t>
   </si>
@@ -1077,8 +1077,8 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1233,9 @@
       <c r="T2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1303,13 +1305,15 @@
       <c r="T3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.78947368421052633</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1373,13 +1377,15 @@
       <c r="T4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.63157894736842102</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1443,13 +1449,15 @@
       <c r="T5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="U5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.57894736842105265</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1513,13 +1521,15 @@
       <c r="T6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.84210526315789469</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1583,7 +1593,9 @@
       <c r="T7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1653,7 +1665,9 @@
       <c r="T8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1723,13 +1737,15 @@
       <c r="T9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.89473684210526316</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1814,7 +1830,7 @@
       </c>
       <c r="U10">
         <f>COUNTIF(Table1[3.05],"כן")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V10">
         <f>COUNTIF(Table1[7.05],"כן")</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
   <si>
     <t>שם</t>
   </si>
@@ -119,9 +119,6 @@
     <t>3.05</t>
   </si>
   <si>
-    <t>7.05</t>
-  </si>
-  <si>
     <t>10.05</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>3.04</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>17.05</t>
+  </si>
+  <si>
+    <t>21.05</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -246,20 +252,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -271,388 +263,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -681,6 +294,433 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,81 +736,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y10" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
-  <autoFilter ref="A1:Y9"/>
-  <tableColumns count="25">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA10" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
+  <autoFilter ref="A1:AA9"/>
+  <tableColumns count="27">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="7.05" totalsRowFunction="custom" dataDxfId="4">
-      <totalsRowFormula>COUNTIF(Table1[7.05],"כן")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="25" name="10.05" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="14.05" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
-      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</calculatedColumnFormula>
+    <tableColumn id="15" name="15.05" totalsRowFunction="custom" dataDxfId="8">
+      <totalsRowFormula>COUNTIF(Table1[15.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" name="17.05" dataDxfId="6"/>
+    <tableColumn id="27" name="21.05" dataDxfId="1"/>
+    <tableColumn id="14" name="% נוכחות" dataDxfId="7" dataCellStyle="Percent">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1074,11 +1116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U6" sqref="U6"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1092,10 +1134,11 @@
     <col min="17" max="20" width="10.875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9.875" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.875" customWidth="1"/>
+    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,16 +1182,16 @@
         <v>22</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>24</v>
@@ -1166,13 +1209,19 @@
         <v>28</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1236,15 +1285,19 @@
       <c r="U2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="3"/>
+      <c r="V2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1308,15 +1361,19 @@
       <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.8</v>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,15 +1437,19 @@
       <c r="U4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.6</v>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1452,15 +1513,19 @@
       <c r="U5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="3"/>
+      <c r="V5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.55000000000000004</v>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1524,17 +1589,21 @@
       <c r="U6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.85</v>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1596,17 +1665,21 @@
       <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1668,17 +1741,21 @@
       <c r="U8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1740,15 +1817,19 @@
       <c r="U9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[14.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[14.05]])</f>
-        <v>0.9</v>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <v>0.90476190476190477</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1833,33 +1914,33 @@
         <v>6</v>
       </c>
       <c r="V10">
-        <f>COUNTIF(Table1[7.05],"כן")</f>
+        <f>COUNTIF(Table1[10.05],"כן")</f>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <f>COUNTIF(Table1[14.05],"כן")</f>
         <v>0</v>
       </c>
-      <c r="W10">
-        <f>COUNTIF(Table1[10.05],"כן")</f>
-        <v>0</v>
-      </c>
       <c r="X10">
-        <f>COUNTIF(Table1[14.05],"כן")</f>
+        <f>COUNTIF(Table1[15.05],"כן")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:X10">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:Z10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AA2:AA10">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1875,7 +1956,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:X9</xm:sqref>
+          <xm:sqref>B2:Z9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agorb\Desktop\QA-08-02\QA-8-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13BD29-407A-4257-A8D7-6C0D8676FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="פרויקט 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -143,24 +144,60 @@
     <t>3.04</t>
   </si>
   <si>
-    <t>15.05</t>
-  </si>
-  <si>
     <t>17.05</t>
   </si>
   <si>
     <t>21.05</t>
+  </si>
+  <si>
+    <t>ציון</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>28.05</t>
+  </si>
+  <si>
+    <t>31.05</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>14.06</t>
+  </si>
+  <si>
+    <t>18.06</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>לא הוגש בעצם כלום</t>
+  </si>
+  <si>
+    <t>המינימום שנדרש - בוצע</t>
+  </si>
+  <si>
+    <t>טבלת אקסל לא מלאה</t>
+  </si>
+  <si>
+    <t>חסר מסמך STP מסודר, לגבי אקסל - חסרים כמה פרמטרים</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -168,14 +205,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -183,7 +220,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -191,16 +228,52 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,12 +300,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -246,7 +375,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -263,7 +392,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -308,23 +439,135 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -736,86 +979,104 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA10" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
-  <autoFilter ref="A1:AA9"/>
-  <tableColumns count="27">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
+  <autoFilter ref="A1:AG9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="38">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2.04" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="3.04" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="10.05" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="14.05" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="15.05" totalsRowFunction="custom" dataDxfId="8">
-      <totalsRowFormula>COUNTIF(Table1[15.05],"כן")</totalsRowFormula>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="17.05" totalsRowFunction="custom" dataDxfId="16">
+      <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="17.05" dataDxfId="6"/>
-    <tableColumn id="27" name="21.05" dataDxfId="1"/>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="7" dataCellStyle="Percent">
-      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</calculatedColumnFormula>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="21.05" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="24.05" dataDxfId="14"/>
+    <tableColumn id="34" xr3:uid="{704598E8-F819-4EFD-A97A-0F5B6CEF25D2}" name="28.05" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{1F0F88A4-A956-4FDC-8077-1C516E4B8E88}" name="31.05" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{EBFCFF02-0A13-436E-A1F3-8BC8E69578D9}" name="11.06" dataDxfId="9"/>
+    <tableColumn id="31" xr3:uid="{1284B354-1585-4D2A-952F-88E532F5B5E6}" name="14.06" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{B94BDA62-7AE8-4BF3-A0A9-3F3584DE5D1A}" name="18.06" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{CF75DA3C-B663-4A25-B5B5-0440E400BE72}" name="21.06" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="13" dataCellStyle="Percent">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{893C95BE-058C-4D1C-A953-7CB1C8ABA70A}" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:D10" xr:uid="{893C95BE-058C-4D1C-A953-7CB1C8ABA70A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{49C57DF3-C47E-4F8E-AC20-C53CB80500FD}" name="שם" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{507D0074-8D38-4487-BD34-7982E5156A74}" name="ציון"/>
+    <tableColumn id="3" xr3:uid="{E78E89B0-BDD9-440D-9F0A-8B400E706DA6}" name="הערות"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1115,30 +1376,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1215,13 +1476,31 @@
         <v>36</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1288,16 +1567,24 @@
       <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1364,16 +1651,24 @@
       <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.76190476190476186</v>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,16 +1735,24 @@
       <c r="V4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.5714285714285714</v>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1516,16 +1819,24 @@
       <c r="V5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.52380952380952384</v>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1592,16 +1903,24 @@
       <c r="V6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.80952380952380953</v>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1668,16 +1987,24 @@
       <c r="V7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1744,16 +2071,24 @@
       <c r="V8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1820,16 +2155,24 @@
       <c r="V9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.90476190476190477</v>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="1">
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1919,28 +2262,28 @@
       </c>
       <c r="W10">
         <f>COUNTIF(Table1[14.05],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <f>COUNTIF(Table1[15.05],"כן")</f>
+        <f>COUNTIF(Table1[17.05],"כן")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:Z10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:AF10">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AG2:AG10">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1952,11 +2295,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
+            <xm:f>'פרויקט 1'!$Z$6:$Z$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:Z9</xm:sqref>
+          <xm:sqref>B2:AF9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1965,26 +2308,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="Y5:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:Y6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y5" t="s">
-        <v>18</v>
+    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y6" t="s">
-        <v>19</v>
+    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="38">
   <si>
     <t>שם</t>
   </si>
@@ -143,13 +143,13 @@
     <t>3.04</t>
   </si>
   <si>
-    <t>15.05</t>
-  </si>
-  <si>
     <t>17.05</t>
   </si>
   <si>
     <t>21.05</t>
+  </si>
+  <si>
+    <t>24.05</t>
   </si>
 </sst>
 </file>
@@ -252,6 +252,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -266,6 +280,419 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -294,433 +721,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,83 +736,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA10" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA10" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
   <autoFilter ref="A1:AA9"/>
   <tableColumns count="27">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="15.05" totalsRowFunction="custom" dataDxfId="8">
-      <totalsRowFormula>COUNTIF(Table1[15.05],"כן")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="26" name="17.05" dataDxfId="6"/>
-    <tableColumn id="27" name="21.05" dataDxfId="1"/>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="7" dataCellStyle="Percent">
-      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</calculatedColumnFormula>
+    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="4">
+      <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" name="21.05" dataDxfId="3"/>
+    <tableColumn id="27" name="24.05" dataDxfId="2"/>
+    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1120,7 +1120,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1288,12 +1288,14 @@
       <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1364,13 +1366,15 @@
       <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.76190476190476186</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -1440,13 +1444,15 @@
       <c r="V4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.5714285714285714</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -1516,13 +1522,15 @@
       <c r="V5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.52380952380952384</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1592,13 +1600,15 @@
       <c r="V6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.80952380952380953</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -1668,12 +1678,14 @@
       <c r="V7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1744,12 +1756,14 @@
       <c r="V8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1820,13 +1834,15 @@
       <c r="V9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[15.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[15.05]])</f>
-        <v>0.90476190476190477</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -1919,28 +1935,28 @@
       </c>
       <c r="W10">
         <f>COUNTIF(Table1[14.05],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <f>COUNTIF(Table1[15.05],"כן")</f>
+        <f>COUNTIF(Table1[17.05],"כן")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:Z10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="38">
   <si>
     <t>שם</t>
   </si>
@@ -1120,7 +1120,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1291,9 @@
       <c r="W2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="1">
@@ -1369,12 +1371,14 @@
       <c r="W3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.72727272727272729</v>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -1447,12 +1451,14 @@
       <c r="W4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.54545454545454541</v>
+        <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -1525,12 +1531,14 @@
       <c r="W5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.5</v>
+        <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1603,12 +1611,14 @@
       <c r="W6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="3"/>
+      <c r="X6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.77272727272727271</v>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -1681,7 +1691,9 @@
       <c r="W7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="1">
@@ -1759,12 +1771,14 @@
       <c r="W8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -1837,12 +1851,14 @@
       <c r="W9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="3"/>
+      <c r="X9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.90909090909090906</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -1939,7 +1955,7 @@
       </c>
       <c r="X10">
         <f>COUNTIF(Table1[17.05],"כן")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
   <si>
     <t>שם</t>
   </si>
@@ -1120,7 +1120,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X2" sqref="X2"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1374,9 @@
       <c r="X3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
@@ -1454,7 +1456,9 @@
       <c r="X4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
@@ -1534,7 +1538,9 @@
       <c r="X5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
@@ -1614,7 +1620,9 @@
       <c r="X6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="3"/>
+      <c r="Y6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
@@ -1694,7 +1702,9 @@
       <c r="X7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
@@ -1774,7 +1784,9 @@
       <c r="X8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
@@ -1854,7 +1866,9 @@
       <c r="X9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agorb\Desktop\QA-08-02\QA-8-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488EC3D1-7CA3-47C5-8490-D94938502AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="פרויקט 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -149,18 +150,54 @@
     <t>21.05</t>
   </si>
   <si>
+    <t>ציון</t>
+  </si>
+  <si>
     <t>24.05</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>28.05</t>
+  </si>
+  <si>
+    <t>31.05</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>14.06</t>
+  </si>
+  <si>
+    <t>18.06</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>לא הוגש בעצם כלום</t>
+  </si>
+  <si>
+    <t>המינימום שנדרש - בוצע</t>
+  </si>
+  <si>
+    <t>טבלת אקסל לא מלאה</t>
+  </si>
+  <si>
+    <t>חסר מסמך STP מסודר, לגבי אקסל - חסרים כמה פרמטרים</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -168,14 +205,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -183,7 +220,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -191,16 +228,52 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,12 +300,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="45">
     <dxf>
       <font>
         <b val="0"/>
@@ -246,23 +324,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -294,9 +358,88 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -312,6 +455,120 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -736,86 +993,120 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA10" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
-  <autoFilter ref="A1:AA9"/>
-  <tableColumns count="27">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
+  <autoFilter ref="A1:AG9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2.04" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="3.04" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="10.05" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="14.05" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="17.05" totalsRowFunction="custom" dataDxfId="2">
       <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="21.05" dataDxfId="3"/>
-    <tableColumn id="27" name="24.05" dataDxfId="2"/>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="21.05" totalsRowFunction="custom" dataDxfId="1">
+      <totalsRowFormula>COUNTIF(Table1[21.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="24.05" totalsRowFunction="custom" dataDxfId="14">
+      <totalsRowFormula>COUNTIF(Table1[24.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{704598E8-F819-4EFD-A97A-0F5B6CEF25D2}" name="28.05" totalsRowFunction="custom" dataDxfId="13">
+      <totalsRowFormula>COUNTIF(Table1[28.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{1F0F88A4-A956-4FDC-8077-1C516E4B8E88}" name="31.05" totalsRowFunction="custom" dataDxfId="12">
+      <totalsRowFormula>COUNTIF(Table1[31.05],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{EBFCFF02-0A13-436E-A1F3-8BC8E69578D9}" name="11.06" totalsRowFunction="custom" dataDxfId="11">
+      <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{1284B354-1585-4D2A-952F-88E532F5B5E6}" name="14.06" totalsRowFunction="custom" dataDxfId="10">
+      <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{B94BDA62-7AE8-4BF3-A0A9-3F3584DE5D1A}" name="18.06" totalsRowFunction="custom" dataDxfId="9">
+      <totalsRowFormula>COUNTIF(Table1[18.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{CF75DA3C-B663-4A25-B5B5-0440E400BE72}" name="21.06" totalsRowFunction="custom" dataDxfId="8">
+      <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{893C95BE-058C-4D1C-A953-7CB1C8ABA70A}" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:D10" xr:uid="{893C95BE-058C-4D1C-A953-7CB1C8ABA70A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{49C57DF3-C47E-4F8E-AC20-C53CB80500FD}" name="שם" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{507D0074-8D38-4487-BD34-7982E5156A74}" name="ציון"/>
+    <tableColumn id="3" xr3:uid="{E78E89B0-BDD9-440D-9F0A-8B400E706DA6}" name="הערות"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1115,30 +1406,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1215,13 +1506,31 @@
         <v>36</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1294,14 +1603,22 @@
       <c r="X2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="1">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1378,12 +1695,18 @@
         <v>19</v>
       </c>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="1">
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1460,12 +1783,18 @@
         <v>19</v>
       </c>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="1">
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1542,12 +1871,18 @@
         <v>19</v>
       </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="1">
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1624,12 +1959,18 @@
         <v>19</v>
       </c>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="1">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1706,12 +2047,18 @@
         <v>18</v>
       </c>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="1">
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1788,12 +2135,18 @@
         <v>19</v>
       </c>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="1">
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1870,12 +2223,18 @@
         <v>18</v>
       </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="1">
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1971,22 +2330,54 @@
         <f>COUNTIF(Table1[17.05],"כן")</f>
         <v>3</v>
       </c>
+      <c r="Y10">
+        <f>COUNTIF(Table1[21.05],"כן")</f>
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <f>COUNTIF(Table1[24.05],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>COUNTIF(Table1[28.05],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f>COUNTIF(Table1[31.05],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>COUNTIF(Table1[11.06],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f>COUNTIF(Table1[14.06],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>COUNTIF(Table1[18.06],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f>COUNTIF(Table1[21.06],"כן")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:Z10">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:AF10">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA10">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AG2:AG10">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1998,11 +2389,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$Y$5:$Y$6</xm:f>
+            <xm:f>'פרויקט 1'!$Z$6:$Z$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:Z9</xm:sqref>
+          <xm:sqref>B2:AF9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2011,26 +2402,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="Y5:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:Y6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y5" t="s">
-        <v>18</v>
+    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y6" t="s">
-        <v>19</v>
+    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agorb\Desktop\QA-08-02\QA-8-02\Lessons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-08-02\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488EC3D1-7CA3-47C5-8490-D94938502AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="QA-8.02.23" sheetId="1" r:id="rId1"/>
     <sheet name="פרויקט 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -192,12 +191,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -205,14 +204,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -220,7 +219,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -228,14 +227,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -244,7 +243,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -310,7 +309,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="43">
     <dxf>
       <font>
         <b val="0"/>
@@ -324,13 +323,13 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -341,57 +340,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -415,8 +364,6 @@
         <sz val="12"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -455,8 +402,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -474,8 +419,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -493,8 +436,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -512,8 +453,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -531,8 +470,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -550,8 +487,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="177"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -569,6 +504,40 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -993,104 +962,104 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
-  <autoFilter ref="A1:AG9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+  <autoFilter ref="A1:AG9"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="שם" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="8.02" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="12.02" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="15.02" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="19.02" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.02" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="26.02" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1.03" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="5.03" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8.03" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="12.03" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="15.03" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="19.03" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="26.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2.04" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="3.04" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="16.04" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="19.04" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="23.04" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="30.04" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.05" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="10.05" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="14.05" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="17.05" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="21.05" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[21.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="24.05" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[24.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{704598E8-F819-4EFD-A97A-0F5B6CEF25D2}" name="28.05" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[28.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{1F0F88A4-A956-4FDC-8077-1C516E4B8E88}" name="31.05" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="33" name="31.05" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[31.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{EBFCFF02-0A13-436E-A1F3-8BC8E69578D9}" name="11.06" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="32" name="11.06" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{1284B354-1585-4D2A-952F-88E532F5B5E6}" name="14.06" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{B94BDA62-7AE8-4BF3-A0A9-3F3584DE5D1A}" name="18.06" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[18.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{CF75DA3C-B663-4A25-B5B5-0440E400BE72}" name="21.06" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="% נוכחות" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="14" name="% נוכחות" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,12 +1068,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{893C95BE-058C-4D1C-A953-7CB1C8ABA70A}" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:D10" xr:uid="{893C95BE-058C-4D1C-A953-7CB1C8ABA70A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{49C57DF3-C47E-4F8E-AC20-C53CB80500FD}" name="שם" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{507D0074-8D38-4487-BD34-7982E5156A74}" name="ציון"/>
-    <tableColumn id="3" xr3:uid="{E78E89B0-BDD9-440D-9F0A-8B400E706DA6}" name="הערות"/>
+    <tableColumn id="1" name="שם" dataDxfId="1"/>
+    <tableColumn id="2" name="ציון"/>
+    <tableColumn id="3" name="הערות"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1406,30 +1375,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.75" customWidth="1"/>
+    <col min="33" max="33" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1575,9 @@
       <c r="Y2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1618,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1665,9 @@
       <c r="Y3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
@@ -1706,7 +1679,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1755,9 @@
       <c r="Y4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
@@ -1794,7 +1769,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1845,9 @@
       <c r="Y5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
@@ -1882,7 +1859,7 @@
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1935,9 @@
       <c r="Y6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="3"/>
+      <c r="Z6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
@@ -1970,7 +1949,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2046,7 +2025,9 @@
       <c r="Y7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="3"/>
+      <c r="Z7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -2058,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2134,7 +2115,9 @@
       <c r="Y8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="3"/>
+      <c r="Z8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -2146,7 +2129,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2222,7 +2205,9 @@
       <c r="Y9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -2234,7 +2219,7 @@
         <v>0.91304347826086951</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2336,7 +2321,7 @@
       </c>
       <c r="Z10">
         <f>COUNTIF(Table1[24.05],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA10">
         <f>COUNTIF(Table1[28.05],"כן")</f>
@@ -2366,18 +2351,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:AF10">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG10">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2389,7 +2374,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'פרויקט 1'!$Z$6:$Z$7</xm:f>
           </x14:formula1>
@@ -2402,23 +2387,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -328,6 +328,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -376,20 +404,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -931,20 +945,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -962,105 +962,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:AG9"/>
   <tableColumns count="33">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[21.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[24.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[28.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="31.05" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="33" name="31.05" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[31.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="11.06" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="32" name="11.06" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[18.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" name="% נוכחות" dataDxfId="3" dataCellStyle="Percent">
-      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1068,10 +1068,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B2:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="שם" dataDxfId="1"/>
+    <tableColumn id="1" name="שם" dataDxfId="4"/>
     <tableColumn id="2" name="ציון"/>
     <tableColumn id="3" name="הערות"/>
   </tableColumns>
@@ -1379,8 +1379,8 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1585,7 +1585,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
         <v>1</v>
       </c>
     </row>
@@ -1675,8 +1675,8 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.69565217391304346</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1765,8 +1765,8 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.52173913043478259</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1855,8 +1855,8 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.47826086956521741</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1945,8 +1945,8 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.73913043478260865</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
         <v>1</v>
       </c>
     </row>
@@ -2125,8 +2125,8 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.95652173913043481</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -2215,8 +2215,8 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[17.05]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[17.05]])</f>
-        <v>0.91304347826086951</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <v>0.88</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="Z10">
         <f>COUNTIF(Table1[24.05],"כן")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <f>COUNTIF(Table1[28.05],"כן")</f>
@@ -2351,18 +2351,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:AF10">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG10">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -328,34 +328,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -404,6 +376,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -945,6 +931,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -962,101 +962,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
   <autoFilter ref="A1:AG9"/>
   <tableColumns count="33">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="35">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[21.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[24.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[28.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="31.05" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="33" name="31.05" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[31.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="11.06" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="32" name="11.06" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[18.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" name="% נוכחות" dataDxfId="3" dataCellStyle="Percent">
@@ -1068,10 +1068,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B2:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="שם" dataDxfId="4"/>
+    <tableColumn id="1" name="שם" dataDxfId="1"/>
     <tableColumn id="2" name="ציון"/>
     <tableColumn id="3" name="הערות"/>
   </tableColumns>
@@ -1379,8 +1379,8 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1578,9 @@
       <c r="Z2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
@@ -1668,7 +1670,9 @@
       <c r="Z3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
@@ -1676,7 +1680,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.64</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1758,7 +1762,9 @@
       <c r="Z4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
@@ -1766,7 +1772,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.48</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1848,7 +1854,9 @@
       <c r="Z5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
@@ -1856,7 +1864,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.44</v>
+        <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1938,7 +1946,9 @@
       <c r="Z6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -1946,7 +1956,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.68</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -2028,7 +2038,9 @@
       <c r="Z7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -2118,7 +2130,9 @@
       <c r="Z8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -2126,7 +2140,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.92</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2208,7 +2222,9 @@
       <c r="Z9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -2216,7 +2232,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.88</v>
+        <v>0.88461538461538458</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2325,7 +2341,7 @@
       </c>
       <c r="AA10">
         <f>COUNTIF(Table1[28.05],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB10">
         <f>COUNTIF(Table1[31.05],"כן")</f>
@@ -2351,18 +2367,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:AF10">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG10">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -161,9 +161,6 @@
     <t>28.05</t>
   </si>
   <si>
-    <t>31.05</t>
-  </si>
-  <si>
     <t>11.06</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>חסר מסמך STP מסודר, לגבי אקסל - חסרים כמה פרמטרים</t>
+  </si>
+  <si>
+    <t>12.06</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1044,11 @@
     <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[28.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="31.05" totalsRowFunction="custom" dataDxfId="8">
-      <totalsRowFormula>COUNTIF(Table1[31.05],"כן")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="32" name="11.06" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="33" name="11.06" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="32" name="12.06" totalsRowFunction="custom" dataDxfId="7">
+      <totalsRowFormula>COUNTIF(Table1[12.06],"כן")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
@@ -1380,7 +1380,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA2" sqref="AA2"/>
+      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1484,13 +1484,13 @@
         <v>41</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>39</v>
@@ -1581,7 +1581,9 @@
       <c r="AA2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="3"/>
+      <c r="AB2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -1673,14 +1675,16 @@
       <c r="AA3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="3"/>
+      <c r="AB3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.61538461538461542</v>
+        <v>0.59259259259259256</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1765,14 +1769,16 @@
       <c r="AA4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.46153846153846156</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1857,14 +1863,16 @@
       <c r="AA5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.42307692307692307</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1949,14 +1957,16 @@
       <c r="AA6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.65384615384615385</v>
+        <v>0.62962962962962965</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -2041,7 +2051,9 @@
       <c r="AA7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="3"/>
+      <c r="AB7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -2133,14 +2145,16 @@
       <c r="AA8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.92307692307692313</v>
+        <v>0.92592592592592593</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2225,14 +2239,16 @@
       <c r="AA9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.88461538461538458</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2344,11 +2360,11 @@
         <v>4</v>
       </c>
       <c r="AB10">
-        <f>COUNTIF(Table1[31.05],"כן")</f>
-        <v>0</v>
+        <f>COUNTIF(Table1[11.06],"כן")</f>
+        <v>4</v>
       </c>
       <c r="AC10">
-        <f>COUNTIF(Table1[11.06],"כן")</f>
+        <f>COUNTIF(Table1[12.06],"כן")</f>
         <v>0</v>
       </c>
       <c r="AD10">
@@ -2427,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -2438,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -2487,7 +2503,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -2498,7 +2514,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -2509,7 +2525,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -185,7 +185,7 @@
     <t>חסר מסמך STP מסודר, לגבי אקסל - חסרים כמה פרמטרים</t>
   </si>
   <si>
-    <t>12.06</t>
+    <t>15.06</t>
   </si>
 </sst>
 </file>
@@ -329,6 +329,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -387,23 +404,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1047,19 +1047,19 @@
     <tableColumn id="33" name="11.06" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="12.06" totalsRowFunction="custom" dataDxfId="7">
-      <totalsRowFormula>COUNTIF(Table1[12.06],"כן")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="31" name="14.06" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="32" name="14.06" totalsRowFunction="custom" dataDxfId="1">
       <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="31" name="15.06" totalsRowFunction="custom" dataDxfId="7">
+      <totalsRowFormula>COUNTIF(Table1[15.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[18.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="14" name="% נוכחות" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1068,10 +1068,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B2:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="שם" dataDxfId="1"/>
+    <tableColumn id="1" name="שם" dataDxfId="2"/>
     <tableColumn id="2" name="ציון"/>
     <tableColumn id="3" name="הערות"/>
   </tableColumns>
@@ -1380,7 +1380,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1484,10 +1484,10 @@
         <v>41</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>43</v>
@@ -1584,13 +1584,15 @@
       <c r="AB2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="3"/>
+      <c r="AC2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -1678,13 +1680,15 @@
       <c r="AB3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.59259259259259256</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1772,13 +1776,15 @@
       <c r="AB4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="3"/>
+      <c r="AC4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.44444444444444442</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1866,13 +1872,15 @@
       <c r="AB5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="3"/>
+      <c r="AC5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.40740740740740738</v>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1960,13 +1968,15 @@
       <c r="AB6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="3"/>
+      <c r="AC6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.62962962962962965</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -2054,7 +2064,9 @@
       <c r="AB7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="3"/>
+      <c r="AC7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
@@ -2148,13 +2160,15 @@
       <c r="AB8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC8" s="3"/>
+      <c r="AC8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.92592592592592593</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2242,13 +2256,15 @@
       <c r="AB9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="3"/>
+      <c r="AC9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.88888888888888884</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2364,11 +2380,11 @@
         <v>4</v>
       </c>
       <c r="AC10">
-        <f>COUNTIF(Table1[12.06],"כן")</f>
-        <v>0</v>
+        <f>COUNTIF(Table1[14.06],"כן")</f>
+        <v>3</v>
       </c>
       <c r="AD10">
-        <f>COUNTIF(Table1[14.06],"כן")</f>
+        <f>COUNTIF(Table1[15.06],"כן")</f>
         <v>0</v>
       </c>
       <c r="AE10">

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -185,7 +185,7 @@
     <t>חסר מסמך STP מסודר, לגבי אקסל - חסרים כמה פרמטרים</t>
   </si>
   <si>
-    <t>15.06</t>
+    <t>25.06</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,12 +304,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="44">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -324,23 +328,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -404,6 +391,23 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -962,105 +966,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG10" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
   <autoFilter ref="A1:AG9"/>
   <tableColumns count="33">
-    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="34">
+    <tableColumn id="1" name="שם" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="8.02" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTIF(Table1[8.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="3" name="12.02" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTIF(Table1[12.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="4" name="15.02" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTIF(Table1[15.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="5" name="19.02" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTIF(Table1[19.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="6" name="22.02" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTIF(Table1[22.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="7" name="26.02" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTIF(Table1[26.02],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="8" name="1.03" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTIF(Table1[1.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="9" name="5.03" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTIF(Table1[5.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="10" name="8.03" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTIF(Table1[8.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="11" name="12.03" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTIF(Table1[12.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="12" name="15.03" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTIF(Table1[15.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="13" name="19.03" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTIF(Table1[19.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="24" name="26.03" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTIF(Table1[26.03],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="23" name="2.04" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTIF(Table1[2.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="22" name="3.04" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTIF(Table1[3.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="21" name="16.04" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTIF(Table1[16.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="20" name="19.04" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTIF(Table1[19.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="19" name="23.04" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTIF(Table1[23.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="18" name="30.04" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTIF(Table1[30.04],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="17" name="3.05" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTIF(Table1[3.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="16" name="10.05" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTIF(Table1[10.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="25" name="14.05" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTIF(Table1[14.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="15" name="17.05" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTIF(Table1[17.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="26" name="21.05" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTIF(Table1[21.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="27" name="24.05" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTIF(Table1[24.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="34" name="28.05" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTIF(Table1[28.05],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="11.06" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="33" name="11.06" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTIF(Table1[11.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="14.06" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="32" name="14.06" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTIF(Table1[14.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" name="15.06" totalsRowFunction="custom" dataDxfId="7">
-      <totalsRowFormula>COUNTIF(Table1[15.06],"כן")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="30" name="18.06" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="31" name="18.06" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTIF(Table1[18.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="21.06" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="30" name="21.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="% נוכחות" dataDxfId="4" dataCellStyle="Percent">
-      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</calculatedColumnFormula>
+    <tableColumn id="29" name="25.06" totalsRowFunction="custom" dataDxfId="5">
+      <totalsRowFormula>COUNTIF(Table1[25.06],"כן")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% נוכחות" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1380,7 +1384,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="topRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1487,13 +1491,13 @@
         <v>42</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="AG1" s="4" t="s">
         <v>21</v>
@@ -1587,12 +1591,14 @@
       <c r="AC2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.9642857142857143</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -1683,12 +1689,14 @@
       <c r="AC3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.5714285714285714</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.55172413793103448</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1779,12 +1787,14 @@
       <c r="AC4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.42857142857142855</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1875,12 +1885,14 @@
       <c r="AC5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="3"/>
+      <c r="AD5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.39285714285714285</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.37931034482758619</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1971,12 +1983,14 @@
       <c r="AC6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.6071428571428571</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.58620689655172409</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -2067,11 +2081,13 @@
       <c r="AC7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" s="3"/>
+      <c r="AD7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
         <v>1</v>
       </c>
     </row>
@@ -2163,12 +2179,14 @@
       <c r="AC8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.9285714285714286</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.93103448275862066</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2259,12 +2277,14 @@
       <c r="AC9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="3"/>
+      <c r="AD9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="1">
-        <f>COUNTIF(Table1[[#This Row],[8.02]:[21.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[21.06]])</f>
-        <v>0.8928571428571429</v>
+        <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2384,33 +2404,37 @@
         <v>3</v>
       </c>
       <c r="AD10">
-        <f>COUNTIF(Table1[15.06],"כן")</f>
-        <v>0</v>
+        <f>COUNTIF(Table1[18.06],"כן")</f>
+        <v>4</v>
       </c>
       <c r="AE10">
-        <f>COUNTIF(Table1[18.06],"כן")</f>
-        <v>0</v>
-      </c>
-      <c r="AF10">
         <f>COUNTIF(Table1[21.06],"כן")</f>
         <v>0</v>
+      </c>
+      <c r="AF10">
+        <f>COUNTIF(Table1[25.06],"כן")</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <f>SUBTOTAL(101,Table1[% נוכחות])</f>
+        <v>0.71551724137931028</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:AF10">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"כן"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"לא"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG10">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThanOrEqual">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="50">
   <si>
     <t>שם</t>
   </si>
@@ -333,6 +333,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -391,23 +408,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1060,10 +1060,10 @@
     <tableColumn id="30" name="21.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="25.06" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="29" name="25.06" totalsRowFunction="custom" dataDxfId="2">
       <totalsRowFormula>COUNTIF(Table1[25.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="% נוכחות" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="14" name="% נוכחות" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,10 +1072,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="שם" dataDxfId="2"/>
+    <tableColumn id="1" name="שם" dataDxfId="3"/>
     <tableColumn id="2" name="ציון"/>
     <tableColumn id="3" name="הערות"/>
   </tableColumns>
@@ -1384,7 +1384,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD7" sqref="AD7"/>
+      <selection pane="topRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,11 +1594,15 @@
       <c r="AD2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AE2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AG2" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.96551724137931039</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -1692,11 +1696,15 @@
       <c r="AD3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AE3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AG3" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.55172413793103448</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -1790,11 +1798,15 @@
       <c r="AD4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AE4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AG4" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.41379310344827586</v>
+        <v>0.38709677419354838</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1888,11 +1900,15 @@
       <c r="AD5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AG5" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.37931034482758619</v>
+        <v>0.35483870967741937</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1986,11 +2002,15 @@
       <c r="AD6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AE6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AG6" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.58620689655172409</v>
+        <v>0.54838709677419351</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -2084,8 +2104,12 @@
       <c r="AD7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AE7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AG7" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
         <v>1</v>
@@ -2182,11 +2206,15 @@
       <c r="AD8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AE8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AG8" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.93103448275862066</v>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2280,11 +2308,15 @@
       <c r="AD9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
+      <c r="AE9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AG9" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.89655172413793105</v>
+        <v>0.90322580645161288</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2409,15 +2441,15 @@
       </c>
       <c r="AE10">
         <f>COUNTIF(Table1[21.06],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF10">
         <f>COUNTIF(Table1[25.06],"כן")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="9">
         <f>SUBTOTAL(101,Table1[% נוכחות])</f>
-        <v>0.71551724137931028</v>
+        <v>0.70161290322580649</v>
       </c>
     </row>
   </sheetData>

--- a/נוכחות 8.02.23.xlsx
+++ b/נוכחות 8.02.23.xlsx
@@ -333,23 +333,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -408,6 +391,23 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1060,10 +1060,10 @@
     <tableColumn id="30" name="21.06" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTIF(Table1[21.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="25.06" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="29" name="25.06" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTIF(Table1[25.06],"כן")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="% נוכחות" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="14" name="% נוכחות" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,10 +1072,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D10" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B2:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="שם" dataDxfId="3"/>
+    <tableColumn id="1" name="שם" dataDxfId="2"/>
     <tableColumn id="2" name="ציון"/>
     <tableColumn id="3" name="הערות"/>
   </tableColumns>
@@ -1384,7 +1384,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="topRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1598,11 +1598,11 @@
         <v>18</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG2" s="1">
         <f>COUNTIF(Table1[[#This Row],[8.02]:[25.06]],"כן")/COUNTA(Table1[[#This Row],[8.02]:[25.06]])</f>
-        <v>0.967741935483871</v>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="AF10">
         <f>COUNTIF(Table1[25.06],"כן")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="9">
         <f>SUBTOTAL(101,Table1[% נוכחות])</f>
-        <v>0.70161290322580649</v>
+        <v>0.69758064516129037</v>
       </c>
     </row>
   </sheetData>
